--- a/biology/Neurosciences/Graham_Hitch/Graham_Hitch.xlsx
+++ b/biology/Neurosciences/Graham_Hitch/Graham_Hitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graham Hitch est professeur émérite de psychologie à l'Université d'York, mieux connu pour son travail avec Alan Baddeley dans le développement d'un modèle de mémoire de travail[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham Hitch est professeur émérite de psychologie à l'Université d'York, mieux connu pour son travail avec Alan Baddeley dans le développement d'un modèle de mémoire de travail,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un baccalauréat ès arts en physique de l'Université de Cambridge, avant d' obtenir une maîtrise ès sciences en psychologie expérimentale de l'Université du Sussex. Il retourne ensuite à Cambridge pour terminer son doctorat en 1972.
 Il travaille comme chercheur à l'Université du Sussex (1971-1972) et à l'Université de Stirling (1972-1974), et en tant que scientifique au Conseil de la recherche médicale de l'unité de psychologie appliquée basée à Cambridge (1974-1979). Plus récemment, il est chargé de cours à l'Université de Manchester (1979-1990) et professeur à l'Université de Lancaster (1991-2000), avant de rejoindre l'Université de York en 2000.
